--- a/sofraco-back-end/documents/mandataireMCMS.xlsx
+++ b/sofraco-back-end/documents/mandataireMCMS.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cassandra/Nextcloud/SOFRACO/☆ Projets/Intervenant externe/DIRIS/Codes courtage/Fichiers retraités/Supp. compagnies inutilisées/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF84083E-2C4D-F841-817A-6AD5673171F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="205">
   <si>
     <t>Nom</t>
   </si>
@@ -128,9 +137,6 @@
   </si>
   <si>
     <t>EOS CONSEILS - MA COMMUNE MA SANTE</t>
-  </si>
-  <si>
-    <t>114 - 156</t>
   </si>
   <si>
     <t>MLT0198</t>
@@ -634,32 +640,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF993300"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -669,47 +687,51 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -899,23 +921,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="46.29"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,7 +983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -966,26 +993,26 @@
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1">
-        <v>218.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -995,30 +1022,30 @@
       <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
-        <v>111.0</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <v>111</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1">
-        <v>36035.0</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="5">
+        <v>36035</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1">
-        <v>136.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1028,30 +1055,30 @@
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <v>158.0</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
+        <v>158</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1">
-        <v>37022.0</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="5">
+        <v>37022</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1">
-        <v>163.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1061,30 +1088,30 @@
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>154.0</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
+        <v>154</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="1">
-        <v>37035.0</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="5">
+        <v>37035</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1">
-        <v>159.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
@@ -1094,932 +1121,955 @@
       <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>114</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
+        <v>36006</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>36006.0</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>156</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="1">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D8" s="5">
+        <v>73821</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="1">
-        <v>73821.0</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <v>45</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="I8" s="5">
+        <v>36023</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="1">
-        <v>36023.0</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M8" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="1">
-        <v>114.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I9" s="5">
+        <v>37029</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="1">
-        <v>37029.0</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1">
-        <v>172.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>95</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>95.0</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="I10" s="5">
+        <v>36033</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="1">
-        <v>36033.0</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="1">
-        <v>134.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <v>102</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
+        <v>35987</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>102.0</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <v>35987.0</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
+      <c r="L11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M11" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="1">
-        <v>98.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <v>37033</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>37033.0</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1">
-        <v>167.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <v>141</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>141.0</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="I13" s="5">
+        <v>36045</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="1">
-        <v>36045.0</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="K13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1">
-        <v>147.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
+        <v>142</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <v>142.0</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="I14" s="5">
+        <v>36048</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="1">
-        <v>36048.0</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="K14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1">
-        <v>151.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>20</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="I15" s="5">
+        <v>36024</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="1">
-        <v>36024.0</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="K15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M15" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="1">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <v>143</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1">
-        <v>143.0</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="I16" s="5">
+        <v>36047</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="1">
-        <v>36047.0</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="K16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="I17" s="5">
+        <v>37028</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="1">
-        <v>37028.0</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="K17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1">
-        <v>165.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
+      <c r="K18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1">
-        <v>237.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
+      <c r="K19" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1">
-        <v>219.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
+      <c r="K20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1">
-        <v>243.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
+        <v>9</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="I21" s="5">
+        <v>36013</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="I20" s="1">
-        <v>36013.0</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="K21" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L21" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M21" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="M20" s="1">
-        <v>108.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
+      <c r="K22" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
+      <c r="I23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="K23" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1">
-        <v>174.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
+      <c r="I24" s="5">
+        <v>37112</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="I23" s="1">
-        <v>37112.0</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="K24" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1">
-        <v>186.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5">
         <v>146</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1">
-        <v>146.0</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="H25" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" s="5">
+        <v>36050</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I24" s="1">
-        <v>36050.0</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="K25" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L25" s="5"/>
+      <c r="M25" s="5">
         <v>149</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1">
-        <v>149.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
+        <v>19</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="I26" s="5">
+        <v>35968</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="I25" s="1">
-        <v>35968.0</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="K26" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L26" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M26" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="1">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
+        <v>19880</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1">
-        <v>19880.0</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
+      <c r="K27" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1">
-        <v>205.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C28" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
+      <c r="K28" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1">
-        <v>206.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5">
+        <v>4</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1" t="s">
+      <c r="L29" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M29" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="M28" s="1">
-        <v>107.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5">
+        <v>30</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="I30" s="5">
+        <v>35964</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I29" s="1">
-        <v>35964.0</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="K30" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L30" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M30" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="M29" s="1">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
+      <c r="K31" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L31" s="5"/>
+      <c r="M31" s="5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1">
-        <v>228.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5">
+        <v>152</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1">
-        <v>152.0</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="I32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="K32" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L32" s="5"/>
+      <c r="M32" s="5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1">
-        <v>157.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C33" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
+      <c r="K33" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5">
         <v>199</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1">
-        <v>199.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="6" t="s">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1">
-        <v>175.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="I35" s="5">
+        <v>37030</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="I34" s="1">
-        <v>37030.0</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="K35" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1">
-        <v>170.0</v>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sofraco-back-end/documents/mandataireMCMS.xlsx
+++ b/sofraco-back-end/documents/mandataireMCMS.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cassandra/Nextcloud/SOFRACO/☆ Projets/Intervenant externe/DIRIS/Codes courtage/Fichiers retraités/Supp. compagnies inutilisées/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF84083E-2C4D-F841-817A-6AD5673171F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -640,30 +631,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Arial&quot;"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
       <color rgb="FF993300"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="&quot;Arial&quot;"/>
     </font>
   </fonts>
   <fills count="4">
@@ -671,12 +665,12 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
+        <fgColor rgb="FFFF6D01"/>
+        <bgColor rgb="FFFF6D01"/>
       </patternFill>
     </fill>
     <fill>
@@ -687,51 +681,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -921,28 +914,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col customWidth="1" min="3" max="3" width="40.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,13 +952,13 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -983,56 +971,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="6">
+        <v>218.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
-        <v>111</v>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="6">
+        <v>111.0</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5">
-        <v>36035</v>
+      <c r="I3" s="6">
+        <v>36035.0</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>23</v>
@@ -1040,32 +1028,32 @@
       <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="6">
+        <v>136.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
-        <v>158</v>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6">
+        <v>158.0</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="5">
-        <v>37022</v>
+      <c r="I4" s="6">
+        <v>37022.0</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>29</v>
@@ -1073,32 +1061,32 @@
       <c r="K4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="6">
+        <v>163.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
-        <v>154</v>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6">
+        <v>154.0</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="5">
-        <v>37035</v>
+      <c r="I5" s="6">
+        <v>37035.0</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>34</v>
@@ -1106,30 +1094,30 @@
       <c r="K5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="6">
+        <v>159.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
-        <v>114</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
-        <v>36006</v>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6">
+        <v>114.0</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="6">
+        <v>36006.0</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>39</v>
@@ -1140,58 +1128,58 @@
       <c r="L6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="5">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="M6" s="6">
+        <v>104.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
-        <v>156</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6">
+        <v>156.0</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="5">
-        <v>73821</v>
+      <c r="D8" s="6">
+        <v>73821.0</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5">
-        <v>45</v>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6">
+        <v>45.0</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="5">
-        <v>36023</v>
+      <c r="I8" s="6">
+        <v>36023.0</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>47</v>
@@ -1202,33 +1190,33 @@
       <c r="L8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="5">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="M8" s="6">
+        <v>114.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="5">
-        <v>37029</v>
+      <c r="I9" s="6">
+        <v>37029.0</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>55</v>
@@ -1236,32 +1224,32 @@
       <c r="K9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="L9" s="4"/>
+      <c r="M9" s="6">
+        <v>172.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
-        <v>95</v>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6">
+        <v>95.0</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="5">
-        <v>36033</v>
+      <c r="I10" s="6">
+        <v>36033.0</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>61</v>
@@ -1269,96 +1257,96 @@
       <c r="K10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="5">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="M10" s="6">
+        <v>134.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
-        <v>102</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5">
-        <v>35987</v>
-      </c>
-      <c r="J11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6">
+        <v>102.0</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="6">
+        <v>35987.0</v>
+      </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="5" t="s">
         <v>66</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="5">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="M11" s="6">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5">
-        <v>37033</v>
-      </c>
-      <c r="J12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="6">
+        <v>37033.0</v>
+      </c>
+      <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="L12" s="4"/>
+      <c r="M12" s="6">
+        <v>167.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5">
-        <v>141</v>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6">
+        <v>141.0</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="5">
-        <v>36045</v>
+      <c r="I13" s="6">
+        <v>36045.0</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>76</v>
@@ -1366,34 +1354,34 @@
       <c r="K13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="6">
+        <v>147.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
-        <v>142</v>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6">
+        <v>142.0</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="5">
-        <v>36048</v>
+      <c r="I14" s="6">
+        <v>36048.0</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>82</v>
@@ -1401,34 +1389,34 @@
       <c r="K14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="L14" s="4"/>
+      <c r="M14" s="6">
+        <v>151.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
-        <v>20</v>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6">
+        <v>20.0</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="5">
-        <v>36024</v>
+      <c r="I15" s="6">
+        <v>36024.0</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>88</v>
@@ -1439,31 +1427,31 @@
       <c r="L15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="5">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="M15" s="6">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
-        <v>143</v>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6">
+        <v>143.0</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="5">
-        <v>36047</v>
+      <c r="I16" s="6">
+        <v>36047.0</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>94</v>
@@ -1471,32 +1459,32 @@
       <c r="K16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="L16" s="4"/>
+      <c r="M16" s="6">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I17" s="5">
-        <v>37028</v>
+      <c r="I17" s="6">
+        <v>37028.0</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>99</v>
@@ -1504,121 +1492,121 @@
       <c r="K17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="L17" s="4"/>
+      <c r="M17" s="6">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="5" t="s">
         <v>106</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="L18" s="4"/>
+      <c r="M18" s="6">
+        <v>237.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="5" t="s">
         <v>112</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="L19" s="4"/>
+      <c r="M19" s="6">
+        <v>219.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="5" t="s">
         <v>118</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="L20" s="4"/>
+      <c r="M20" s="6">
+        <v>243.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5">
-        <v>9</v>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="6">
+        <v>9.0</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="5">
-        <v>36013</v>
+      <c r="I21" s="6">
+        <v>36013.0</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>124</v>
@@ -1629,57 +1617,57 @@
       <c r="L21" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="M21" s="5">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="M21" s="6">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="5" t="s">
         <v>131</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="L22" s="4"/>
+      <c r="M22" s="6">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="J23" s="5" t="s">
@@ -1688,30 +1676,30 @@
       <c r="K23" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="L23" s="4"/>
+      <c r="M23" s="6">
+        <v>174.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="5">
-        <v>37112</v>
+      <c r="I24" s="6">
+        <v>37112.0</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>142</v>
@@ -1719,32 +1707,32 @@
       <c r="K24" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="L24" s="4"/>
+      <c r="M24" s="6">
+        <v>186.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5">
-        <v>146</v>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="6">
+        <v>146.0</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I25" s="5">
-        <v>36050</v>
+      <c r="I25" s="6">
+        <v>36050.0</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>147</v>
@@ -1752,32 +1740,32 @@
       <c r="K25" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5">
+      <c r="L25" s="4"/>
+      <c r="M25" s="6">
+        <v>149.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5">
-        <v>19</v>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="6">
+        <v>19.0</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I26" s="5">
-        <v>35968</v>
+      <c r="I26" s="6">
+        <v>35968.0</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>153</v>
@@ -1788,124 +1776,124 @@
       <c r="L26" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="M26" s="5">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="M26" s="6">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5">
-        <v>19880</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6">
+        <v>19880.0</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="5" t="s">
         <v>160</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="L27" s="4"/>
+      <c r="M27" s="6">
+        <v>205.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="5" t="s">
         <v>166</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="L28" s="4"/>
+      <c r="M28" s="6">
+        <v>206.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5">
-        <v>4</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="5" t="s">
         <v>171</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="M29" s="5">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="M29" s="6">
+        <v>107.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5">
-        <v>30</v>
+      <c r="F30" s="4"/>
+      <c r="G30" s="6">
+        <v>30.0</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I30" s="5">
-        <v>35964</v>
+      <c r="I30" s="6">
+        <v>35964.0</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>178</v>
@@ -1916,61 +1904,61 @@
       <c r="L30" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M30" s="5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="M30" s="6">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="5" t="s">
         <v>186</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="L31" s="4"/>
+      <c r="M31" s="6">
+        <v>228.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5">
-        <v>152</v>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="6">
+        <v>152.0</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="7" t="s">
         <v>53</v>
       </c>
       <c r="J32" s="5" t="s">
@@ -1979,84 +1967,84 @@
       <c r="K32" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="L32" s="4"/>
+      <c r="M32" s="6">
+        <v>157.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="4"/>
       <c r="J33" s="5" t="s">
         <v>197</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5">
+      <c r="L33" s="4"/>
+      <c r="M33" s="6">
+        <v>199.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="6">
+        <v>175.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="I35" s="5">
-        <v>37030</v>
+      <c r="I35" s="6">
+        <v>37030.0</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>203</v>
@@ -2064,12 +2052,12 @@
       <c r="K35" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5">
-        <v>170</v>
+      <c r="L35" s="4"/>
+      <c r="M35" s="6">
+        <v>170.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>